--- a/backend/results/Munjal/monthly_rejection_Sand Inclusion defect.xlsx
+++ b/backend/results/Munjal/monthly_rejection_Sand Inclusion defect.xlsx
@@ -417,13 +417,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>544</v>
+        <v>2097</v>
       </c>
       <c r="C2">
-        <v>92369</v>
+        <v>403292</v>
       </c>
       <c r="D2">
-        <v>0.5889421775703969</v>
+        <v>0.5199706416194718</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -431,13 +431,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>414</v>
+        <v>2381</v>
       </c>
       <c r="C3">
-        <v>91856</v>
+        <v>337966</v>
       </c>
       <c r="D3">
-        <v>0.4507054520118446</v>
+        <v>0.7045087375653172</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -445,13 +445,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>398</v>
+        <v>1312</v>
       </c>
       <c r="C4">
-        <v>94874</v>
+        <v>306230</v>
       </c>
       <c r="D4">
-        <v>0.4195037628855113</v>
+        <v>0.4284361427685073</v>
       </c>
     </row>
   </sheetData>

--- a/backend/results/Munjal/monthly_rejection_Sand Inclusion defect.xlsx
+++ b/backend/results/Munjal/monthly_rejection_Sand Inclusion defect.xlsx
@@ -417,13 +417,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2097</v>
+        <v>544</v>
       </c>
       <c r="C2">
-        <v>403292</v>
+        <v>92369</v>
       </c>
       <c r="D2">
-        <v>0.5199706416194718</v>
+        <v>0.5889421775703969</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -431,13 +431,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2381</v>
+        <v>414</v>
       </c>
       <c r="C3">
-        <v>337966</v>
+        <v>91856</v>
       </c>
       <c r="D3">
-        <v>0.7045087375653172</v>
+        <v>0.4507054520118446</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -445,13 +445,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1312</v>
+        <v>398</v>
       </c>
       <c r="C4">
-        <v>306230</v>
+        <v>94874</v>
       </c>
       <c r="D4">
-        <v>0.4284361427685073</v>
+        <v>0.4195037628855113</v>
       </c>
     </row>
   </sheetData>
